--- a/zad2/MIASI-2.xlsx
+++ b/zad2/MIASI-2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neufrin\Documents\MiASI\zad2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Łukasz\Documents\MiASI\zad2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -94,7 +94,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -112,7 +112,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -144,7 +144,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL"/>
-              <a:t>Wykres oczekiwań w kolejce</a:t>
+              <a:t>Wykres </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -182,37 +182,27 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>w kolejce</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$14:$B$21</c:f>
               <c:numCache>
@@ -244,8 +234,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>Sheet1!$D$14:$D$21</c:f>
               <c:numCache>
@@ -277,8 +267,90 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Obsłużone</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$14:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.99998663020534073</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99997212790031265</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99978502089913812</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9962286996687103</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97289335095761065</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89863690194393564</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75584697958684188</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56590189168521865</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -288,11 +360,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-862318448"/>
-        <c:axId val="-862323888"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-862318448"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="670648688"/>
+        <c:axId val="663160656"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="670648688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -406,12 +480,15 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-862323888"/>
+        <c:crossAx val="663160656"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="-862323888"/>
+        <c:axId val="663160656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -452,7 +529,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pl-PL"/>
-                  <a:t>(1-P)</a:t>
+                  <a:t>%</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -494,7 +571,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -531,9 +608,9 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-862318448"/>
+        <c:crossAx val="670648688"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -543,6 +620,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1172,9 +1281,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1212,7 +1321,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1284,7 +1393,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1437,7 +1546,7 @@
   <dimension ref="B3:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/zad2/MIASI-2.xlsx
+++ b/zad2/MIASI-2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Łukasz\Documents\MiASI\zad2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neufrin\Documents\MiASI\zad2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Lambda</t>
   </si>
@@ -39,6 +39,18 @@
   </si>
   <si>
     <t>kolejka</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -94,7 +106,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -112,7 +124,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -362,11 +374,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="670648688"/>
-        <c:axId val="663160656"/>
+        <c:axId val="-677956016"/>
+        <c:axId val="-677953840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="670648688"/>
+        <c:axId val="-677956016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -480,7 +492,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="663160656"/>
+        <c:crossAx val="-677953840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -488,7 +500,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="663160656"/>
+        <c:axId val="-677953840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -608,7 +620,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="670648688"/>
+        <c:crossAx val="-677956016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1281,9 +1293,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1321,7 +1333,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1393,7 +1405,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1543,10 +1555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:T21"/>
+  <dimension ref="B3:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="P14" sqref="P14:Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2234,10 +2246,10 @@
       <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2253,6 +2265,12 @@
         <f>1-C14</f>
         <v>1.336979465926813E-5</v>
       </c>
+      <c r="P14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
@@ -2266,6 +2284,13 @@
         <f t="shared" ref="D15:D21" si="4">1-C15</f>
         <v>2.7872099687353824E-5</v>
       </c>
+      <c r="P15" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="3">
+        <f>SUM(C4:S4)</f>
+        <v>0.99998663020534073</v>
+      </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
@@ -2279,8 +2304,15 @@
         <f t="shared" si="4"/>
         <v>2.1497910086187844E-4</v>
       </c>
+      <c r="P16" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="3">
+        <f t="shared" ref="Q16:Q22" si="5">SUM(C5:S5)</f>
+        <v>0.99997212790031265</v>
+      </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>8</v>
       </c>
@@ -2292,8 +2324,15 @@
         <f t="shared" si="4"/>
         <v>3.7713003312896953E-3</v>
       </c>
+      <c r="P17" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="3">
+        <f t="shared" si="5"/>
+        <v>0.99978502089913812</v>
+      </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>10</v>
       </c>
@@ -2305,8 +2344,15 @@
         <f t="shared" si="4"/>
         <v>2.7106649042389352E-2</v>
       </c>
+      <c r="P18" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="3">
+        <f t="shared" si="5"/>
+        <v>0.9962286996687103</v>
+      </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>12</v>
       </c>
@@ -2318,8 +2364,15 @@
         <f t="shared" si="4"/>
         <v>0.10136309805606436</v>
       </c>
+      <c r="P19" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="3">
+        <f t="shared" si="5"/>
+        <v>0.97289335095761065</v>
+      </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>14</v>
       </c>
@@ -2331,8 +2384,15 @@
         <f t="shared" si="4"/>
         <v>0.24415302041315812</v>
       </c>
+      <c r="P20" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="3">
+        <f t="shared" si="5"/>
+        <v>0.89863690194393564</v>
+      </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>16</v>
       </c>
@@ -2343,6 +2403,22 @@
       <c r="D21" s="2">
         <f t="shared" si="4"/>
         <v>0.43409810831478135</v>
+      </c>
+      <c r="P21" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q21" s="3">
+        <f t="shared" si="5"/>
+        <v>0.75584697958684188</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P22" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="3">
+        <f t="shared" si="5"/>
+        <v>0.56590189168521865</v>
       </c>
     </row>
   </sheetData>
